--- a/test_file/read_test.xlsx
+++ b/test_file/read_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\excelizex\test_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDE7716-A9EB-4720-BFAE-23F1895FE2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1C81A1-4349-45CA-B053-C48ED3C9B771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="2258" windowWidth="20212" windowHeight="9397" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="577" yWindow="503" windowWidth="20213" windowHeight="12277" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>埃低</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,34 +40,6 @@
   </si>
   <si>
     <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +368,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -425,79 +397,79 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
